--- a/プロジェクト型演習_成果物フォーマット_細貝.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_細貝.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER99\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A1794-18D5-4CD1-96F1-EAACE479B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5E727-2D78-4083-9324-5B1AC945A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,148 +1281,226 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,92 +1509,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1540,22 +1540,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>65555</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1058697</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28959</xdr:rowOff>
+      <xdr:colOff>1076546</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32B7675-D3FE-9426-D969-EA2565645BA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBEA5C9-8323-B087-4C90-26B5E38D0423}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,8 +1571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65555" y="1628775"/>
-          <a:ext cx="8708392" cy="3200784"/>
+          <a:off x="0" y="1939428"/>
+          <a:ext cx="8788353" cy="2800120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2967,19 +2967,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2991,72 +2991,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="103">
+      <c r="G2" s="49"/>
+      <c r="H2" s="54">
         <v>45881</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="77"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="49" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="62" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="63" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="39"/>
@@ -3064,15 +3064,15 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="63" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="39"/>
@@ -3080,15 +3080,15 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="63" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="39"/>
@@ -3096,17 +3096,17 @@
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="40"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="83" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="39"/>
@@ -3114,15 +3114,15 @@
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="61" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="83" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="39"/>
@@ -3130,15 +3130,15 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="63" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="39"/>
@@ -3146,15 +3146,15 @@
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="62" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="63" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="39"/>
@@ -3162,23 +3162,23 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="46" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4169,17 +4169,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -4188,14 +4185,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4207,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4219,19 +4219,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -4243,48 +4243,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="103">
+      <c r="G2" s="49"/>
+      <c r="H2" s="54">
         <v>45881</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="77"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -5635,7 +5635,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5646,19 +5646,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -5670,48 +5670,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="79" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="103">
+      <c r="G2" s="49"/>
+      <c r="H2" s="54">
         <v>45881</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="113"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="114"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7066,19 +7066,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7090,65 +7090,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="79" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="103">
+      <c r="G2" s="49"/>
+      <c r="H2" s="54">
         <v>45881</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="77"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="39"/>
@@ -7159,22 +7159,22 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -7183,10 +7183,10 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="91"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -7195,10 +7195,10 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="91"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -7207,10 +7207,10 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="91"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -7219,10 +7219,10 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="91"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="60"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -7231,10 +7231,10 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="91"/>
+      <c r="J12" s="101"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="60"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -7243,10 +7243,10 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="91"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="39"/>
@@ -7257,15 +7257,15 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="95" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="52"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -7276,7 +7276,7 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="95" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="39"/>
@@ -7293,95 +7293,95 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="102" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="52"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="53"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="85"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="52"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="53"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="85"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="52"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="52"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="53"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="52"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="53"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="85"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="52"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="53"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8362,11 +8362,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -8376,23 +8387,12 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8416,141 +8416,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="78" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="78" t="s">
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="78" t="s">
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="78" t="s">
+      <c r="P1" s="118"/>
+      <c r="Q1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="78" t="s">
+      <c r="R1" s="118"/>
+      <c r="S1" s="46" t="s">
         <v>9</v>
       </c>
       <c r="T1" s="119"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="79" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="79" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="124">
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="113">
         <v>45881</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="79" t="s">
+      <c r="P2" s="110"/>
+      <c r="Q2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="121"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="114"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="122"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="123"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="49" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="82"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="95" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="39"/>
@@ -8558,7 +8558,7 @@
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="39"/>
@@ -8573,10 +8573,10 @@
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
-      <c r="T6" s="53"/>
+      <c r="T6" s="64"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="95" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="39"/>
@@ -8584,7 +8584,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="63" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="39"/>
@@ -8599,7 +8599,7 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
-      <c r="T7" s="53"/>
+      <c r="T7" s="64"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -8798,33 +8798,33 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="95" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="122" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="102" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="102" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="92" t="s">
+      <c r="J15" s="102" t="s">
         <v>48</v>
       </c>
       <c r="K15" s="40"/>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="102" t="s">
         <v>49</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="92" t="s">
+      <c r="O15" s="102" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="39"/>
@@ -8840,33 +8840,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="94">
+      <c r="A16" s="120">
         <v>1</v>
       </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="121" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="40"/>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="105" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="105" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="40"/>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="107" t="s">
         <v>58</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="40"/>
-      <c r="O16" s="98" t="s">
+      <c r="O16" s="107" t="s">
         <v>59</v>
       </c>
       <c r="P16" s="39"/>
@@ -8882,33 +8882,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="94">
+      <c r="A17" s="120">
         <v>2</v>
       </c>
       <c r="B17" s="40"/>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="121" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="121" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="105" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="100" t="s">
+      <c r="J17" s="105" t="s">
         <v>63</v>
       </c>
       <c r="K17" s="40"/>
-      <c r="L17" s="98" t="s">
+      <c r="L17" s="107" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="98" t="s">
+      <c r="O17" s="107" t="s">
         <v>65</v>
       </c>
       <c r="P17" s="39"/>
@@ -8924,21 +8924,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="94"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="40"/>
-      <c r="C18" s="95"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="95"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="100"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="100"/>
+      <c r="J18" s="105"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="98"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="39"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="98"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="33"/>
@@ -8952,21 +8952,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="94"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="95"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="95"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="100"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="100"/>
+      <c r="J19" s="105"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="98"/>
+      <c r="L19" s="107"/>
       <c r="M19" s="39"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="98"/>
+      <c r="O19" s="107"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="33"/>
@@ -8980,21 +8980,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="94"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="95"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="95"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="100"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="100"/>
+      <c r="J20" s="105"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="98"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="39"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="98"/>
+      <c r="O20" s="107"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="40"/>
       <c r="R20" s="33"/>
@@ -9008,21 +9008,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="94"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="95"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="95"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="100"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="39"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="100"/>
+      <c r="J21" s="105"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="98"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="39"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="98"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="33"/>
@@ -9036,21 +9036,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="94"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="40"/>
-      <c r="C22" s="95"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="95"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="100"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="100"/>
+      <c r="J22" s="105"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="98"/>
+      <c r="L22" s="107"/>
       <c r="M22" s="39"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="98"/>
+      <c r="O22" s="107"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="33"/>
@@ -9064,21 +9064,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="94"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="40"/>
-      <c r="C23" s="95"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="95"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="100"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="100"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="98"/>
+      <c r="L23" s="107"/>
       <c r="M23" s="39"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="98"/>
+      <c r="O23" s="107"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="33"/>
@@ -9092,21 +9092,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="94"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="40"/>
-      <c r="C24" s="95"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="95"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="100"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="39"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="100"/>
+      <c r="J24" s="105"/>
       <c r="K24" s="40"/>
-      <c r="L24" s="98"/>
+      <c r="L24" s="107"/>
       <c r="M24" s="39"/>
       <c r="N24" s="40"/>
-      <c r="O24" s="98"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="33"/>
@@ -9120,21 +9120,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="94"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="40"/>
-      <c r="C25" s="95"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="95"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="100"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="39"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="100"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="98"/>
+      <c r="L25" s="107"/>
       <c r="M25" s="39"/>
       <c r="N25" s="40"/>
-      <c r="O25" s="98"/>
+      <c r="O25" s="107"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="33"/>
@@ -9148,21 +9148,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="94"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="95"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="95"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="100"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="39"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="100"/>
+      <c r="J26" s="105"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="98"/>
+      <c r="L26" s="107"/>
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
-      <c r="O26" s="98"/>
+      <c r="O26" s="107"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="33"/>
@@ -9176,21 +9176,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="94"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="95"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="95"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="100"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="39"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="100"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="98"/>
+      <c r="L27" s="107"/>
       <c r="M27" s="39"/>
       <c r="N27" s="40"/>
-      <c r="O27" s="98"/>
+      <c r="O27" s="107"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="33"/>
@@ -9204,21 +9204,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="94"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="95"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="95"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="100"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="39"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="100"/>
+      <c r="J28" s="105"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="98"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="39"/>
       <c r="N28" s="40"/>
-      <c r="O28" s="98"/>
+      <c r="O28" s="107"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="33"/>
@@ -9232,21 +9232,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="94"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="40"/>
-      <c r="C29" s="95"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="95"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="100"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="100"/>
+      <c r="J29" s="105"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="98"/>
+      <c r="L29" s="107"/>
       <c r="M29" s="39"/>
       <c r="N29" s="40"/>
-      <c r="O29" s="98"/>
+      <c r="O29" s="107"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="33"/>
@@ -9260,21 +9260,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="94"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="40"/>
-      <c r="C30" s="95"/>
+      <c r="C30" s="121"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="95"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="100"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="39"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="100"/>
+      <c r="J30" s="105"/>
       <c r="K30" s="40"/>
-      <c r="L30" s="98"/>
+      <c r="L30" s="107"/>
       <c r="M30" s="39"/>
       <c r="N30" s="40"/>
-      <c r="O30" s="98"/>
+      <c r="O30" s="107"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="33"/>
@@ -9288,23 +9288,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="96"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="67"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -10302,62 +10302,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -10382,62 +10382,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_細貝.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_細貝.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F5E727-2D78-4083-9324-5B1AC945A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBCD2B1-8401-45F3-8D9E-F9C252415441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1428,6 +1428,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,12 +1456,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,6 +1573,55 @@
         <a:xfrm>
           <a:off x="0" y="1939428"/>
           <a:ext cx="8788353" cy="2800120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>795634</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC998BFC-544A-B9C0-6A36-8B714E46FA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="921972"/>
+          <a:ext cx="8525538" cy="4750287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4207,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4255,7 +4304,7 @@
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="54">
-        <v>45881</v>
+        <v>45887</v>
       </c>
       <c r="I2" s="57" t="s">
         <v>79</v>
@@ -5634,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5682,7 +5731,7 @@
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="54">
-        <v>45881</v>
+        <v>45887</v>
       </c>
       <c r="I2" s="57" t="s">
         <v>79</v>
@@ -7044,6 +7093,7 @@
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7134,12 +7184,12 @@
       <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="97"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -7148,7 +7198,7 @@
       <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="39"/>
@@ -7162,16 +7212,16 @@
       <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
       <c r="A8" s="71"/>
@@ -7183,7 +7233,7 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="101"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
       <c r="A9" s="71"/>
@@ -7195,7 +7245,7 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="101"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
       <c r="A10" s="71"/>
@@ -7207,7 +7257,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="101"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="A11" s="71"/>
@@ -7219,7 +7269,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="101"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
       <c r="A12" s="71"/>
@@ -7231,7 +7281,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="101"/>
+      <c r="J12" s="103"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" s="71"/>
@@ -7243,10 +7293,10 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="101"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="39"/>
@@ -7260,7 +7310,7 @@
       <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="39"/>
@@ -7276,7 +7326,7 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="39"/>
@@ -7293,14 +7343,14 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="104" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="96"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40"/>
       <c r="D17" s="17"/>
@@ -7312,7 +7362,7 @@
       <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="96"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40"/>
       <c r="D18" s="17"/>
@@ -7324,7 +7374,7 @@
       <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
       <c r="D19" s="17"/>
@@ -7336,7 +7386,7 @@
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="96"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
       <c r="D20" s="17"/>
@@ -7348,7 +7398,7 @@
       <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="96"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
       <c r="D21" s="17"/>
@@ -7360,7 +7410,7 @@
       <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="96"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
       <c r="D22" s="17"/>
@@ -7372,7 +7422,7 @@
       <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="104"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
       <c r="D23" s="19"/>
@@ -8362,18 +8412,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -8389,10 +8437,12 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8524,7 +8574,7 @@
       <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="95" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="75"/>
@@ -8550,7 +8600,7 @@
       <c r="T5" s="82"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="39"/>
@@ -8576,7 +8626,7 @@
       <c r="T6" s="64"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="39"/>
@@ -8798,7 +8848,7 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="40"/>
@@ -8806,25 +8856,25 @@
         <v>39</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="104" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="104" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="104" t="s">
         <v>48</v>
       </c>
       <c r="K15" s="40"/>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="104" t="s">
         <v>49</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="102" t="s">
+      <c r="O15" s="104" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="39"/>
